--- a/Docs/Content/HungryDragonContent_Leagues.xlsx
+++ b/Docs/Content/HungryDragonContent_Leagues.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="123">
   <si>
     <t>[sku]</t>
   </si>
@@ -1268,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,14 +2148,14 @@
       <c r="D37" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,14 +2263,14 @@
       <c r="D42" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2378,14 +2378,14 @@
       <c r="D47" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="F47" s="9">
-        <v>1</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2493,14 +2493,14 @@
       <c r="D52" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2608,14 +2608,14 @@
       <c r="D57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="F57" s="9">
-        <v>1</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,14 +2723,14 @@
       <c r="D62" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="9">
+        <v>1</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" s="9">
-        <v>1</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2838,14 +2838,14 @@
       <c r="D67" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="F67" s="9">
-        <v>1</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2953,14 +2953,14 @@
       <c r="D72" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12">
+        <v>1</v>
+      </c>
+      <c r="G72" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="F72" s="12">
-        <v>1</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_Leagues.xlsx
+++ b/Docs/Content/HungryDragonContent_Leagues.xlsx
@@ -392,7 +392,7 @@
     <t>egg_offer</t>
   </si>
   <si>
-    <t>egg_betterRate</t>
+    <t>egg_betterRates</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1280,7 @@
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>

--- a/Docs/Content/HungryDragonContent_Leagues.xlsx
+++ b/Docs/Content/HungryDragonContent_Leagues.xlsx
@@ -613,7 +613,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -885,6 +885,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -921,13 +928,6 @@
       <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -960,6 +960,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -985,7 +995,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A17:G72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table52" displayName="Table52" ref="A17:G72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="A17:G72"/>
   <tableColumns count="7">
     <tableColumn id="1" name="{leaguesRewardsDefinitions}" dataDxfId="6"/>
@@ -1269,7 +1279,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
